--- a/nkcv.xlsx
+++ b/nkcv.xlsx
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,15 +982,13 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
-        <v>16</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>2</v>
       </c>
       <c r="G2">
         <f>SUM($E$2:$E$75)</f>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1014,7 +1012,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" si="0">SUM($E$2:$E$75)</f>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1038,7 +1036,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1062,7 +1060,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1086,7 +1084,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1110,7 +1108,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1134,7 +1132,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1158,7 +1156,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1182,7 +1180,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,7 +1204,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1230,7 +1228,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -1254,7 +1252,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1278,7 +1276,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,7 +1300,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1326,7 +1324,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1350,7 +1348,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1374,7 +1372,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,7 +1392,7 @@
       <c r="F19" s="1"/>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1418,7 +1416,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1442,7 +1440,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1487,7 +1485,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,7 +1509,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1535,7 +1533,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
@@ -1559,7 +1557,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1583,7 +1581,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1607,7 +1605,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1631,7 +1629,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1655,7 +1653,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -1679,7 +1677,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1703,7 +1701,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1727,7 +1725,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1751,7 +1749,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1775,7 +1773,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1799,7 +1797,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
@@ -1823,7 +1821,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1847,7 +1845,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1871,7 +1869,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1895,7 +1893,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1919,7 +1917,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1939,7 +1937,7 @@
       <c r="F42" s="1"/>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1959,7 +1957,7 @@
       <c r="F43" s="1"/>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1979,7 +1977,7 @@
       <c r="F44" s="1"/>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2003,7 +2001,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2027,7 +2025,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2051,7 +2049,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2075,7 +2073,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2099,7 +2097,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2119,7 +2117,7 @@
       <c r="F50" s="1"/>
       <c r="G50">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2143,7 +2141,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,7 +2161,7 @@
       <c r="F52" s="1"/>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2187,7 +2185,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2211,7 +2209,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2235,7 +2233,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2259,7 +2257,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2283,7 +2281,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2307,7 +2305,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2331,7 +2329,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2355,7 +2353,7 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2379,7 +2377,7 @@
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2403,7 +2401,7 @@
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2427,7 +2425,7 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2451,7 +2449,7 @@
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2475,7 +2473,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2499,7 +2497,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2523,7 +2521,7 @@
       </c>
       <c r="G67">
         <f t="shared" ref="G67:G75" si="1">SUM($E$2:$E$75)</f>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2547,7 +2545,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2571,7 +2569,7 @@
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2595,7 +2593,7 @@
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2619,7 +2617,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2643,7 +2641,7 @@
       </c>
       <c r="G72">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2667,7 +2665,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -2691,7 +2689,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2715,7 +2713,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/nkcv.xlsx
+++ b/nkcv.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\CrawlNKCV\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="630" yWindow="570" windowWidth="27495" windowHeight="11700"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Nhat ky chua nhap" sheetId="1" r:id="rId1"/>
     <sheet name="Nhat ky da nhap" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="195">
   <si>
     <t>stt_rec</t>
   </si>
@@ -597,12 +602,15 @@
   </si>
   <si>
     <t>Lỗi sau khi PO lấy dữ liệu từ PR:- PO lấy 1 phần của PR, lập PO mới không tìm thấy PR đó nữa (mặc dù PR vẫn còn 1 dòng chưa đc lấy dữ liệu)- bảng detail của PR không lưu thông tin PO (stt_rec, so_dh, line) =&gt; các báo cáo so sánh giữa PR và PO không lên dữ liệu của PO** case:- PR (số ct 90, ngày 01/08/23, stt_rec = 'A000008812PR1')- PO (số ct 132, ngày 02/08/23, stt_rec = 'A000008813PO1')</t>
+  </si>
+  <si>
+    <t>A000388783NK1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,6 +654,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -936,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,8 +998,8 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f>SUM($E$2:$E$75)</f>
-        <v>196</v>
+        <f>SUM($E$2:$E$76)</f>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1011,8 +1022,8 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">SUM($E$2:$E$75)</f>
-        <v>196</v>
+        <f t="shared" ref="G3:G67" si="0">SUM($E$2:$E$76)</f>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,114 +1047,114 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -1156,213 +1167,213 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="1">
-        <v>6</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1">
-        <v>16</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E17" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1">
         <v>6</v>
@@ -1372,86 +1383,86 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E19" s="1">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1">
         <v>2</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>69</v>
@@ -1459,20 +1470,23 @@
       <c r="E22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
       <c r="G22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>69</v>
@@ -1480,263 +1494,260 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E30" s="1">
-        <v>3</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>100</v>
@@ -1749,18 +1760,18 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>100</v>
@@ -1773,42 +1784,42 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>100</v>
@@ -1821,42 +1832,42 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>100</v>
@@ -1869,18 +1880,18 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>100</v>
@@ -1889,22 +1900,22 @@
         <v>1</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>100</v>
@@ -1913,130 +1924,130 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
         <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E44" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="1">
-        <v>10</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>126</v>
@@ -2049,18 +2060,18 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>126</v>
@@ -2073,18 +2084,18 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>126</v>
@@ -2097,130 +2108,130 @@
       </c>
       <c r="G49">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" s="1">
         <v>8</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F52" s="1">
         <v>2</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="1">
-        <v>10</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
       <c r="G53">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>144</v>
@@ -2233,18 +2244,18 @@
       </c>
       <c r="G55">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>144</v>
@@ -2257,18 +2268,18 @@
       </c>
       <c r="G56">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>144</v>
@@ -2281,21 +2292,21 @@
       </c>
       <c r="G57">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E58" s="1">
         <v>1</v>
@@ -2305,18 +2316,18 @@
       </c>
       <c r="G58">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>155</v>
@@ -2329,18 +2340,18 @@
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>155</v>
@@ -2353,18 +2364,18 @@
       </c>
       <c r="G60">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>155</v>
@@ -2377,18 +2388,18 @@
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>155</v>
@@ -2401,18 +2412,18 @@
       </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>155</v>
@@ -2425,18 +2436,18 @@
       </c>
       <c r="G63">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>155</v>
@@ -2449,21 +2460,21 @@
       </c>
       <c r="G64">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
@@ -2473,18 +2484,18 @@
       </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>170</v>
@@ -2497,18 +2508,18 @@
       </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>170</v>
@@ -2520,67 +2531,67 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G75" si="1">SUM($E$2:$E$75)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <f t="shared" ref="G68:G76" si="1">SUM($E$2:$E$76)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E69" s="1">
         <v>4</v>
-      </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" s="1">
-        <v>1</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
       </c>
       <c r="G69">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>180</v>
@@ -2593,18 +2604,18 @@
       </c>
       <c r="G70">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>180</v>
@@ -2617,18 +2628,18 @@
       </c>
       <c r="G71">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>180</v>
@@ -2641,18 +2652,18 @@
       </c>
       <c r="G72">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>180</v>
@@ -2665,55 +2676,79 @@
       </c>
       <c r="G73">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E74" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <f t="shared" si="1"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
